--- a/matrices/contre.xlsx
+++ b/matrices/contre.xlsx
@@ -15,90 +15,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Bastion</t>
-  </si>
-  <si>
-    <t>Doomfist</t>
-  </si>
-  <si>
-    <t>DVa</t>
-  </si>
-  <si>
-    <t>Genji</t>
-  </si>
-  <si>
-    <t>Hanzo</t>
-  </si>
-  <si>
-    <t>Junkrat</t>
-  </si>
-  <si>
-    <t>Lucio</t>
-  </si>
-  <si>
-    <t>McCree</t>
-  </si>
-  <si>
-    <t>Mei</t>
-  </si>
-  <si>
-    <t>Mercy</t>
-  </si>
-  <si>
-    <t>Moira</t>
-  </si>
-  <si>
-    <t>Orisa</t>
-  </si>
-  <si>
-    <t>Pharah</t>
-  </si>
-  <si>
-    <t>Reaper</t>
-  </si>
-  <si>
-    <t>Reinhart</t>
-  </si>
-  <si>
-    <t>Roadhog</t>
-  </si>
-  <si>
-    <t>Soldier: 76</t>
-  </si>
-  <si>
-    <t>Sombra</t>
-  </si>
-  <si>
-    <t>Symmetra</t>
-  </si>
-  <si>
-    <t>Torbjorn</t>
-  </si>
-  <si>
-    <t>Tracer</t>
-  </si>
-  <si>
-    <t>WidowMaker</t>
-  </si>
-  <si>
-    <t>Winston</t>
-  </si>
-  <si>
-    <t>Zarya</t>
-  </si>
-  <si>
-    <t>Zenyatta</t>
-  </si>
-  <si>
-    <t>Reinhardt</t>
-  </si>
-  <si>
-    <t>Widowmaker</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>doo</t>
+  </si>
+  <si>
+    <t>dva</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>luc</t>
+  </si>
+  <si>
+    <t>mcc</t>
+  </si>
+  <si>
+    <t>mei</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>moi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>pha</t>
+  </si>
+  <si>
+    <t>rea</t>
+  </si>
+  <si>
+    <t>rei</t>
+  </si>
+  <si>
+    <t>roa</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>sym</t>
+  </si>
+  <si>
+    <t>tor</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>wid</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>zar</t>
+  </si>
+  <si>
+    <t>zen</t>
   </si>
 </sst>
 </file>
@@ -322,7 +316,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:AA27"/>
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -563,7 +557,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,7 +839,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1067,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1135,9 +1129,9 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>0</v>
@@ -1475,7 +1469,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1543,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1621,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>25</v>
